--- a/data/spuibeheer/extern/verwerkt_in_excel/os_Ijzer_2025.xlsx
+++ b/data/spuibeheer/extern/verwerkt_in_excel/os_Ijzer_2025.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mijn Drive\Github\aangepast-spuibeheer\data\spuibeheer\extern\ruw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mijn Drive\Github\aangepast-spuibeheer\data\spuibeheer\extern\verwerkt_in_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="31710" yWindow="1550" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
   <sheets>
-    <sheet name="Ijzer" sheetId="2" r:id="rId1"/>
+    <sheet name="maart" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="81">
   <si>
     <t>Waterstanden om 8:00 uur , 18:00 uur en bij iedere bewerking</t>
   </si>
@@ -199,9 +199,6 @@
     <t>3 x 2,30m</t>
   </si>
   <si>
-    <t>in opdracht van Tim Wolff, zie mail</t>
-  </si>
-  <si>
     <t>3 x 0,20m</t>
   </si>
   <si>
@@ -247,28 +244,13 @@
     <t>2x0,50m</t>
   </si>
   <si>
-    <t>7;00</t>
-  </si>
-  <si>
     <t>laswerken spaarbekken</t>
-  </si>
-  <si>
-    <t>9u35</t>
   </si>
   <si>
     <t>1x1m/1x0,5m</t>
   </si>
   <si>
-    <t>Tesa Basix vraag om  de spuikom naar 3m te brengen /schuif 23 kan maar 0,5m open</t>
-  </si>
-  <si>
-    <t>Enjo heeft alles dichtgekregen, schuiven 27&amp;32blijven buiten dienst, alsook schuif 25(printplaat)</t>
-  </si>
-  <si>
     <t>2x1,50m</t>
-  </si>
-  <si>
-    <t>18;00</t>
   </si>
   <si>
     <t>man 25%</t>
@@ -281,9 +263,6 @@
   </si>
   <si>
     <t>2 x 0,25m</t>
-  </si>
-  <si>
-    <t>07u00</t>
   </si>
   <si>
     <t>1 x 2,00m</t>
@@ -1400,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S325"/>
+  <dimension ref="A1:R325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14"/>
@@ -1421,12 +1400,11 @@
     <col min="12" max="12" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.08203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="35.4140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="56.58203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="45.4140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.08203125" style="1"/>
+    <col min="15" max="15" width="45.4140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.08203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.4">
+    <row r="1" spans="1:15" ht="23.5">
       <c r="A1" s="79" t="s">
         <v>17</v>
       </c>
@@ -1444,7 +1422,7 @@
       <c r="M1" s="80"/>
       <c r="N1" s="80"/>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1">
       <c r="A2" s="81" t="s">
         <v>18</v>
       </c>
@@ -1462,7 +1440,7 @@
       <c r="M2" s="82"/>
       <c r="N2" s="82"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1">
+    <row r="3" spans="1:15" ht="18.75" customHeight="1">
       <c r="A3" s="83" t="s">
         <v>0</v>
       </c>
@@ -1480,9 +1458,8 @@
       <c r="M3" s="83"/>
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-    </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
+    </row>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="21"/>
@@ -1504,7 +1481,7 @@
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:16" ht="14.4">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1538,7 +1515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.4">
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="34"/>
       <c r="C6" s="35" t="s">
@@ -1568,7 +1545,7 @@
       </c>
       <c r="N6" s="40"/>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1">
+    <row r="7" spans="1:15" ht="15" thickBot="1">
       <c r="A7" s="8"/>
       <c r="B7" s="41"/>
       <c r="C7" s="42"/>
@@ -1592,7 +1569,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="49"/>
     </row>
-    <row r="8" spans="1:16" ht="14.4">
+    <row r="8" spans="1:15">
       <c r="A8" s="10">
         <v>45717</v>
       </c>
@@ -1624,7 +1601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="14.4">
+    <row r="9" spans="1:15">
       <c r="A9" s="10"/>
       <c r="B9" s="11">
         <v>0.1875</v>
@@ -1654,7 +1631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="14.4">
+    <row r="10" spans="1:15">
       <c r="A10" s="10"/>
       <c r="B10" s="11">
         <v>0.26041666666666669</v>
@@ -1682,7 +1659,7 @@
       </c>
       <c r="N10" s="56"/>
     </row>
-    <row r="11" spans="1:16" ht="14.4">
+    <row r="11" spans="1:15">
       <c r="A11" s="10"/>
       <c r="B11" s="11">
         <v>0.29166666666666669</v>
@@ -1716,7 +1693,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="56"/>
     </row>
-    <row r="12" spans="1:16" ht="14.4">
+    <row r="12" spans="1:15">
       <c r="A12" s="10"/>
       <c r="B12" s="11">
         <v>0.33333333333333331</v>
@@ -1740,7 +1717,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="56"/>
     </row>
-    <row r="13" spans="1:16" ht="14.4">
+    <row r="13" spans="1:15">
       <c r="A13" s="10"/>
       <c r="B13" s="11">
         <v>0.46527777777777779</v>
@@ -1768,7 +1745,7 @@
       </c>
       <c r="N13" s="56"/>
     </row>
-    <row r="14" spans="1:16" ht="14.4">
+    <row r="14" spans="1:15">
       <c r="A14" s="10"/>
       <c r="B14" s="11">
         <v>0.4861111111111111</v>
@@ -1796,7 +1773,7 @@
       </c>
       <c r="N14" s="56"/>
     </row>
-    <row r="15" spans="1:16" ht="14.4">
+    <row r="15" spans="1:15">
       <c r="A15" s="10"/>
       <c r="B15" s="11">
         <v>0.51388888888888884</v>
@@ -1826,7 +1803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14.4">
+    <row r="16" spans="1:15">
       <c r="A16" s="10"/>
       <c r="B16" s="11">
         <v>0.70833333333333337</v>
@@ -1856,7 +1833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.4">
+    <row r="17" spans="1:14">
       <c r="A17" s="10"/>
       <c r="B17" s="11">
         <v>0.75</v>
@@ -1890,7 +1867,7 @@
       <c r="M17" s="60"/>
       <c r="N17" s="56"/>
     </row>
-    <row r="18" spans="1:14" ht="14.4">
+    <row r="18" spans="1:14">
       <c r="A18" s="10"/>
       <c r="B18" s="11">
         <v>0.79166666666666663</v>
@@ -1914,7 +1891,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="56"/>
     </row>
-    <row r="19" spans="1:14" ht="14.4">
+    <row r="19" spans="1:14">
       <c r="A19" s="10">
         <v>45718</v>
       </c>
@@ -1946,7 +1923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.4">
+    <row r="20" spans="1:14">
       <c r="A20" s="10"/>
       <c r="B20" s="11">
         <v>0.21527777777777779</v>
@@ -1976,7 +1953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="14.4">
+    <row r="21" spans="1:14">
       <c r="A21" s="10"/>
       <c r="B21" s="11">
         <v>0.33333333333333331</v>
@@ -2000,7 +1977,7 @@
       <c r="M21" s="61"/>
       <c r="N21" s="56"/>
     </row>
-    <row r="22" spans="1:14" ht="14.4">
+    <row r="22" spans="1:14">
       <c r="A22" s="10"/>
       <c r="B22" s="11">
         <v>0.41666666666666669</v>
@@ -2766,7 +2743,9 @@
         <v>7</v>
       </c>
       <c r="M47" s="14"/>
-      <c r="N47" s="56"/>
+      <c r="N47" s="56" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="10"/>
@@ -2800,7 +2779,7 @@
       <c r="M48" s="14"/>
       <c r="N48" s="56"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:18">
       <c r="A49" s="10"/>
       <c r="B49" s="11">
         <v>0.29166666666666669</v>
@@ -2828,7 +2807,7 @@
       </c>
       <c r="N49" s="56"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:18">
       <c r="A50" s="10"/>
       <c r="B50" s="11">
         <v>0.33333333333333331</v>
@@ -2852,7 +2831,7 @@
       <c r="M50" s="14"/>
       <c r="N50" s="56"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:18">
       <c r="A51" s="10"/>
       <c r="B51" s="11">
         <v>0.61458333333333337</v>
@@ -2880,7 +2859,7 @@
       </c>
       <c r="N51" s="56"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:18">
       <c r="A52" s="10"/>
       <c r="B52" s="11">
         <v>0.66666666666666663</v>
@@ -2904,7 +2883,7 @@
       <c r="M52" s="14"/>
       <c r="N52" s="56"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:18">
       <c r="A53" s="10"/>
       <c r="B53" s="11">
         <v>0.75</v>
@@ -2936,7 +2915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:18">
       <c r="A54" s="10"/>
       <c r="B54" s="11">
         <v>0.79166666666666663</v>
@@ -2960,7 +2939,7 @@
       <c r="M54" s="14"/>
       <c r="N54" s="56"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:18">
       <c r="A55" s="10"/>
       <c r="B55" s="11">
         <v>0.80902777777777779</v>
@@ -2990,7 +2969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:18">
       <c r="A56" s="10"/>
       <c r="B56" s="11">
         <v>0.86458333333333337</v>
@@ -3018,7 +2997,7 @@
       </c>
       <c r="N56" s="56"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:18">
       <c r="A57" s="10">
         <v>45722</v>
       </c>
@@ -3048,7 +3027,7 @@
       </c>
       <c r="N57" s="56"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:18">
       <c r="A58" s="10"/>
       <c r="B58" s="11">
         <v>0.13194444444444445</v>
@@ -3078,7 +3057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:18">
       <c r="A59" s="10"/>
       <c r="B59" s="11">
         <v>0.29166666666666669</v>
@@ -3112,7 +3091,7 @@
       <c r="M59" s="14"/>
       <c r="N59" s="56"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:18">
       <c r="A60" s="10"/>
       <c r="B60" s="11">
         <v>0.33333333333333331</v>
@@ -3140,7 +3119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:18">
       <c r="A61" s="10"/>
       <c r="B61" s="11">
         <v>0.35069444444444442</v>
@@ -3168,7 +3147,7 @@
       </c>
       <c r="N61" s="56"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:18">
       <c r="A62" s="10"/>
       <c r="B62" s="11">
         <v>0.59375</v>
@@ -3195,11 +3174,11 @@
         <v>11</v>
       </c>
       <c r="N62" s="56"/>
-      <c r="S62" s="1" t="s">
+      <c r="R62" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:18">
       <c r="A63" s="10"/>
       <c r="B63" s="11">
         <v>0.65972222222222221</v>
@@ -3229,7 +3208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:18">
       <c r="A64" s="10"/>
       <c r="B64" s="11">
         <v>0.75</v>
@@ -4199,7 +4178,7 @@
       <c r="M96" s="14"/>
       <c r="N96" s="56"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:14">
       <c r="A97" s="10"/>
       <c r="B97" s="11">
         <v>0.3576388888888889</v>
@@ -4229,7 +4208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:14">
       <c r="A98" s="10"/>
       <c r="B98" s="11">
         <v>0.55902777777777779</v>
@@ -4258,11 +4237,8 @@
       <c r="N98" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="O98" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="10"/>
       <c r="B99" s="11">
         <v>0.64236111111111116</v>
@@ -4290,7 +4266,7 @@
       </c>
       <c r="N99" s="56"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:14">
       <c r="A100" s="10"/>
       <c r="B100" s="11">
         <v>0.75</v>
@@ -4324,7 +4300,7 @@
       <c r="M100" s="14"/>
       <c r="N100" s="56"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:14">
       <c r="A101" s="10"/>
       <c r="B101" s="11">
         <v>0.75347222222222221</v>
@@ -4352,7 +4328,7 @@
       </c>
       <c r="N101" s="56"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:14">
       <c r="A102" s="10"/>
       <c r="B102" s="11">
         <v>0.79166666666666663</v>
@@ -4376,7 +4352,7 @@
       <c r="M102" s="14"/>
       <c r="N102" s="56"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:14">
       <c r="A103" s="10"/>
       <c r="B103" s="11">
         <v>0.88541666666666663</v>
@@ -4406,7 +4382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:14">
       <c r="A104" s="10">
         <v>45727</v>
       </c>
@@ -4438,7 +4414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:14">
       <c r="A105" s="10"/>
       <c r="B105" s="11">
         <v>0.29166666666666669</v>
@@ -4472,7 +4448,7 @@
       <c r="M105" s="14"/>
       <c r="N105" s="56"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:14">
       <c r="A106" s="10"/>
       <c r="B106" s="11">
         <v>0.33333333333333331</v>
@@ -4500,7 +4476,7 @@
       </c>
       <c r="N106" s="56"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:14">
       <c r="A107" s="10"/>
       <c r="B107" s="11">
         <v>0.40277777777777779</v>
@@ -4530,7 +4506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:14">
       <c r="A108" s="10"/>
       <c r="B108" s="11">
         <v>0.61111111111111116</v>
@@ -4554,13 +4530,13 @@
         <v>7</v>
       </c>
       <c r="M108" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N108" s="57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:14">
       <c r="A109" s="10"/>
       <c r="B109" s="11">
         <v>0.75</v>
@@ -4594,7 +4570,7 @@
       <c r="M109" s="14"/>
       <c r="N109" s="56"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:14">
       <c r="A110" s="10"/>
       <c r="B110" s="11">
         <v>0.79166666666666663</v>
@@ -4618,7 +4594,7 @@
       <c r="M110" s="14"/>
       <c r="N110" s="56"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:14">
       <c r="A111" s="10"/>
       <c r="B111" s="11">
         <v>0.92361111111111116</v>
@@ -4648,7 +4624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:14">
       <c r="A112" s="10">
         <v>45728</v>
       </c>
@@ -4674,7 +4650,7 @@
         <v>7</v>
       </c>
       <c r="M112" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N112" s="57" t="s">
         <v>10</v>
@@ -4704,7 +4680,7 @@
         <v>7</v>
       </c>
       <c r="M113" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N113" s="57"/>
     </row>
@@ -5002,7 +4978,7 @@
         <v>7</v>
       </c>
       <c r="M123" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N123" s="57" t="s">
         <v>10</v>
@@ -5032,7 +5008,7 @@
         <v>7</v>
       </c>
       <c r="M124" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N124" s="56"/>
     </row>
@@ -5060,7 +5036,7 @@
         <v>7</v>
       </c>
       <c r="M125" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N125" s="56"/>
     </row>
@@ -5328,7 +5304,7 @@
         <v>7</v>
       </c>
       <c r="M134" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N134" s="56" t="s">
         <v>10</v>
@@ -5358,7 +5334,7 @@
         <v>7</v>
       </c>
       <c r="M135" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N135" s="56"/>
     </row>
@@ -5386,14 +5362,12 @@
         <v>7</v>
       </c>
       <c r="M136" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N136" s="56"/>
     </row>
     <row r="137" spans="1:14">
-      <c r="A137" s="10">
-        <v>45731</v>
-      </c>
+      <c r="A137" s="10"/>
       <c r="B137" s="11">
         <v>0.29166666666666669</v>
       </c>
@@ -5632,7 +5606,7 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="10">
-        <v>45732</v>
+        <v>45731</v>
       </c>
       <c r="B145" s="11">
         <v>3.472222222222222E-3</v>
@@ -5686,16 +5660,13 @@
         <v>7</v>
       </c>
       <c r="M146" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N146" s="56" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:14">
-      <c r="A147" s="10">
-        <v>45731</v>
-      </c>
       <c r="B147" s="11">
         <v>0.3125</v>
       </c>
@@ -5981,7 +5952,7 @@
         <v>7</v>
       </c>
       <c r="M156" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N156" s="56" t="s">
         <v>10</v>
@@ -6093,7 +6064,7 @@
         <v>7</v>
       </c>
       <c r="M160" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N160" s="56"/>
     </row>
@@ -6121,7 +6092,7 @@
         <v>7</v>
       </c>
       <c r="M161" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N161" s="56"/>
     </row>
@@ -6300,7 +6271,7 @@
         <v>11</v>
       </c>
       <c r="N167" s="56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -6421,7 +6392,7 @@
         <v>7</v>
       </c>
       <c r="M171" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N171" s="57"/>
     </row>
@@ -6567,7 +6538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:14">
       <c r="A177" s="10"/>
       <c r="B177" s="11">
         <v>0.29166666666666669</v>
@@ -6601,7 +6572,7 @@
       <c r="M177" s="14"/>
       <c r="N177" s="57"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:14">
       <c r="A178" s="10"/>
       <c r="B178" s="11">
         <v>0.33333333333333331</v>
@@ -6625,7 +6596,7 @@
       <c r="M178" s="14"/>
       <c r="N178" s="57"/>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:14">
       <c r="A179" s="10"/>
       <c r="B179" s="11">
         <v>0.40277777777777779</v>
@@ -6653,7 +6624,7 @@
       </c>
       <c r="N179" s="57"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:14">
       <c r="A180" s="10"/>
       <c r="B180" s="11">
         <v>0.57291666666666663</v>
@@ -6683,7 +6654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:14">
       <c r="A181" s="10"/>
       <c r="B181" s="11">
         <v>18</v>
@@ -6717,7 +6688,7 @@
       <c r="M181" s="14"/>
       <c r="N181" s="57"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:14">
       <c r="A182" s="10"/>
       <c r="B182" s="11">
         <v>0.74652777777777779</v>
@@ -6747,7 +6718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:14">
       <c r="A183" s="10"/>
       <c r="B183" s="11">
         <v>0.79166666666666663</v>
@@ -6771,7 +6742,7 @@
       <c r="M183" s="14"/>
       <c r="N183" s="57"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:14">
       <c r="A184" s="10"/>
       <c r="B184" s="11">
         <v>0.95833333333333337</v>
@@ -6799,7 +6770,7 @@
       </c>
       <c r="N184" s="57"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:14">
       <c r="A185" s="10">
         <v>45735</v>
       </c>
@@ -6831,7 +6802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:14">
       <c r="A186" s="10"/>
       <c r="B186" s="65">
         <v>0.25</v>
@@ -6855,16 +6826,16 @@
         <v>7</v>
       </c>
       <c r="M186" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N186" s="57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:14">
       <c r="A187" s="10"/>
-      <c r="B187" s="11" t="s">
-        <v>70</v>
+      <c r="B187" s="11">
+        <v>0.29166666666666669</v>
       </c>
       <c r="C187" s="50">
         <v>3.21</v>
@@ -6895,7 +6866,7 @@
       <c r="M187" s="14"/>
       <c r="N187" s="57"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:14">
       <c r="A188" s="10"/>
       <c r="B188" s="11">
         <v>0.31944444444444442</v>
@@ -6919,13 +6890,13 @@
         <v>7</v>
       </c>
       <c r="M188" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N188" s="57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" s="10"/>
       <c r="B189" s="11">
         <v>0.33333333333333331</v>
@@ -6951,7 +6922,7 @@
       <c r="M189" s="14"/>
       <c r="N189" s="57"/>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:14">
       <c r="A190" s="10"/>
       <c r="B190" s="11">
         <v>0.3611111111111111</v>
@@ -6979,10 +6950,10 @@
       </c>
       <c r="N190" s="57"/>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:14">
       <c r="A191" s="10"/>
-      <c r="B191" s="11" t="s">
-        <v>72</v>
+      <c r="B191" s="11">
+        <v>0.39930555555555558</v>
       </c>
       <c r="C191" s="50"/>
       <c r="D191" s="51"/>
@@ -7003,14 +6974,11 @@
         <v>7</v>
       </c>
       <c r="M191" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N191" s="57"/>
-      <c r="O191" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15">
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" s="10"/>
       <c r="B192" s="11">
         <v>0.51736111111111116</v>
@@ -7037,9 +7005,6 @@
         <v>11</v>
       </c>
       <c r="N192" s="57"/>
-      <c r="O192" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="10"/>
@@ -7213,7 +7178,7 @@
         <v>7</v>
       </c>
       <c r="M198" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N198" s="57" t="s">
         <v>10</v>
@@ -7551,8 +7516,8 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="10"/>
-      <c r="B210" s="11" t="s">
-        <v>77</v>
+      <c r="B210" s="11">
+        <v>0.75</v>
       </c>
       <c r="C210" s="50"/>
       <c r="D210" s="51"/>
@@ -7732,16 +7697,16 @@
         <v>3.04</v>
       </c>
       <c r="D216" s="51" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E216" s="52" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F216" s="53" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G216" s="54" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H216" s="55"/>
       <c r="I216" s="15"/>
@@ -7754,7 +7719,7 @@
       </c>
       <c r="M216" s="14"/>
       <c r="N216" s="57" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -7812,7 +7777,7 @@
       </c>
       <c r="M218" s="14"/>
       <c r="N218" s="57" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -7889,7 +7854,7 @@
         <v>7</v>
       </c>
       <c r="M221" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N221" s="57"/>
     </row>
@@ -8007,7 +7972,7 @@
         <v>7</v>
       </c>
       <c r="M225" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N225" s="57"/>
     </row>
@@ -8101,8 +8066,8 @@
       <c r="A229" s="10">
         <v>45741</v>
       </c>
-      <c r="B229" s="11" t="s">
-        <v>82</v>
+      <c r="B229" s="11">
+        <v>0.29166666666666669</v>
       </c>
       <c r="C229" s="50">
         <v>3.15</v>
@@ -8331,10 +8296,10 @@
         <v>7</v>
       </c>
       <c r="M236" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N236" s="57" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -8529,7 +8494,7 @@
         <v>7</v>
       </c>
       <c r="M243" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="N243" s="57"/>
     </row>
@@ -8767,7 +8732,7 @@
         <v>7</v>
       </c>
       <c r="M251" s="14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="N251" s="57"/>
     </row>
@@ -8883,7 +8848,7 @@
         <v>7</v>
       </c>
       <c r="M255" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N255" s="57"/>
     </row>
@@ -9055,7 +9020,7 @@
         <v>7</v>
       </c>
       <c r="M261" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N261" s="57"/>
     </row>
@@ -9135,7 +9100,7 @@
         <v>7</v>
       </c>
       <c r="M264" s="14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="N264" s="57"/>
     </row>
@@ -9217,7 +9182,7 @@
         <v>7</v>
       </c>
       <c r="M267" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N267" s="57"/>
     </row>
@@ -10423,7 +10388,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
